--- a/espn_scrapper/IPL/Mumbai Indians/Suryakumar Yadav .xlsx
+++ b/espn_scrapper/IPL/Mumbai Indians/Suryakumar Yadav .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,9 +962,219 @@
         <v>150.00</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Nov 3 2020</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G17" t="str">
+        <v>36</v>
+      </c>
+      <c r="H17" t="str">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <v>5</v>
+      </c>
+      <c r="J17" t="str">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v>124.13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Oct 28 2020</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G18" t="str">
+        <v>79</v>
+      </c>
+      <c r="H18" t="str">
+        <v>43</v>
+      </c>
+      <c r="I18" t="str">
+        <v>10</v>
+      </c>
+      <c r="J18" t="str">
+        <v>3</v>
+      </c>
+      <c r="K18" t="str">
+        <v>183.72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Oct 4 2020</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Mumbai won by 34 runs</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G19" t="str">
+        <v>27</v>
+      </c>
+      <c r="H19" t="str">
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <v>6</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> Oct 18 2020</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Match tied (Kings XI won the one-over eliminator)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>4</v>
+      </c>
+      <c r="I20" t="str">
+        <v>0</v>
+      </c>
+      <c r="J20" t="str">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve"> Nov 5 2020</v>
+      </c>
+      <c r="B21" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Mumbai won by 57 runs</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G21" t="str">
+        <v>51</v>
+      </c>
+      <c r="H21" t="str">
+        <v>38</v>
+      </c>
+      <c r="I21" t="str">
+        <v>6</v>
+      </c>
+      <c r="J21" t="str">
+        <v>2</v>
+      </c>
+      <c r="K21" t="str">
+        <v>134.21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> Oct 16 2020</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F22" t="str">
+        <v xml:space="preserve">Suryakumar Yadav </v>
+      </c>
+      <c r="G22" t="str">
+        <v>10</v>
+      </c>
+      <c r="H22" t="str">
+        <v>10</v>
+      </c>
+      <c r="I22" t="str">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>